--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/MLX/mlx-institutional.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/MLX/mlx-institutional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\MLX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\MLX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F4491-9CB6-4640-943E-0A6DFAE0FF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3872B48C-8C25-4C07-8578-7F95B0973CE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTITUTIONAL FACT SHEET" sheetId="3" r:id="rId1"/>
@@ -194,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3657,11 +3657,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="9" style="23" bestFit="1" customWidth="1"/>
@@ -3674,12 +3674,12 @@
     <col min="22" max="16384" width="8.7109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="I1" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.45" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>41</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="19.5">
       <c r="A4" s="25" t="s">
         <v>21</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>Since Inception*</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="26" t="s">
         <v>16</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="M5" s="47"/>
       <c r="N5" s="47"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="28" t="s">
         <v>17</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>-0.73412944838961991</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="52" t="s">
         <v>33</v>
       </c>
@@ -3810,7 +3810,7 @@
       <c r="F7" s="52"/>
       <c r="G7" s="52"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="H10" s="50" t="s">
         <v>37</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>15324.996234511997</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="H11" s="50" t="s">
         <v>38</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>9227.1202947969341</v>
       </c>
     </row>
-    <row r="19" spans="8:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:22">
       <c r="H19" s="53" t="s">
         <v>27</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="T19" s="54"/>
       <c r="U19" s="55"/>
     </row>
-    <row r="20" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1">
       <c r="H20" s="30"/>
       <c r="I20" s="31" t="s">
         <v>3</v>
@@ -3891,7 +3891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1">
       <c r="H21" s="39">
         <v>2020</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>-57.188019061063521</v>
       </c>
     </row>
-    <row r="22" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1">
       <c r="H22" s="38">
         <v>2019</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>6.5553849910055639</v>
       </c>
     </row>
-    <row r="23" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1">
       <c r="H23" s="38">
         <v>2018</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>-12.418409356246007</v>
       </c>
     </row>
-    <row r="24" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1">
       <c r="H24" s="45">
         <v>2017</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>-6.5199132098643471</v>
       </c>
     </row>
-    <row r="25" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1">
       <c r="H25" s="38">
         <v>2016</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>18.306196598620961</v>
       </c>
     </row>
-    <row r="26" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1">
       <c r="H26" s="38">
         <v>2015</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>-32.590013742556089</v>
       </c>
     </row>
-    <row r="27" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1">
       <c r="H27" s="38">
         <v>2014</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>4.8034515206021977</v>
       </c>
     </row>
-    <row r="28" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1">
       <c r="H28" s="39">
         <v>2013</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>27.581503985365185</v>
       </c>
     </row>
-    <row r="29" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1">
       <c r="H29" s="40">
         <v>2012</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>4.7988291781138281</v>
       </c>
     </row>
-    <row r="30" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1">
       <c r="H30" s="40">
         <v>2011</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>13.875677361506389</v>
       </c>
     </row>
-    <row r="31" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1">
       <c r="H31" s="40">
         <v>2010</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>35.852554087334212</v>
       </c>
     </row>
-    <row r="32" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:22" s="33" customFormat="1" ht="14.45" customHeight="1">
       <c r="H32" s="41">
         <v>2009</v>
       </c>
@@ -4629,7 +4629,7 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
@@ -4639,12 +4639,12 @@
     <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16">
       <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>-7.7287970520306559E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
         <v>3</v>
@@ -4717,7 +4717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B4" s="13">
         <v>2009</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>0.42903634746740837</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15.75" hidden="1" thickBot="1">
       <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="P5" s="18"/>
     </row>
-    <row r="6" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B6" s="13">
         <v>2010</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>0.3585255408733421</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="15.75" hidden="1" thickBot="1">
       <c r="B7" s="16" t="s">
         <v>2</v>
       </c>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B8" s="13">
         <v>2011</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>0.13875677361506389</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="15.75" hidden="1" thickBot="1">
       <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="P9" s="18"/>
     </row>
-    <row r="10" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B10" s="13">
         <v>2012</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>4.7988291781138281E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="15.75" hidden="1" thickBot="1">
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="P11" s="18"/>
     </row>
-    <row r="12" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B12" s="13">
         <v>2013</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>0.27581503985365186</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="15.75" hidden="1" thickBot="1">
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="P13" s="18"/>
     </row>
-    <row r="14" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B14" s="13">
         <v>2014</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>4.8034515206021977E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="15.75" hidden="1" thickBot="1">
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="P15" s="18"/>
     </row>
-    <row r="16" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B16" s="13">
         <v>2015</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>-0.3259001374255609</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" ht="15.75" hidden="1" thickBot="1">
       <c r="B17" s="16" t="s">
         <v>2</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>-0.11003817376698721</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B18" s="13">
         <v>2016</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0.18306196598620961</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B19" s="13">
         <v>2017</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>-6.5199132098643475E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B20" s="13">
         <v>2018</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>-0.12418409356246007</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B21" s="13">
         <v>2019</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>6.5553849910055639E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="B22" s="13">
         <v>2020</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>-0.57188019061063522</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -5600,7 +5600,7 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16">
       <c r="B25" s="6">
         <v>39933</v>
       </c>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16">
       <c r="B26" s="6">
         <v>39964</v>
       </c>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16">
       <c r="B27" s="6">
         <v>39994</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>-0.60950006886544972</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16">
       <c r="B28" s="6">
         <v>40025</v>
       </c>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16">
       <c r="B29" s="6">
         <v>40056</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>3.988003612651414E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16">
       <c r="B30" s="6">
         <v>40086</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>-7.3412944838965322E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16">
       <c r="B31" s="6">
         <v>40117</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>12603.545817486896</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16">
       <c r="B32" s="6">
         <v>40147</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>13404.855158842784</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="B33" s="6">
         <v>40178</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="6">
         <v>40209</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="B35" s="6">
         <v>40237</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>-0.57188019061063522</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" s="6">
         <v>40268</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>-0.60950006886544972</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="B37" s="6">
         <v>40298</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>-0.28908319485363521</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="6">
         <v>40329</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>-0.20664843101856512</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="B39" s="6">
         <v>40359</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>-5.0359026702622267E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="B40" s="6">
         <v>40390</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>-7.3412944838961991E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" s="6">
         <v>40421</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>16739.134548069102</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="6">
         <v>40451</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>17765.983614311939</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" s="6">
         <v>40482</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>18724.527445081458</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="B44" s="6">
         <v>40512</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>19082.514994985908</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" s="6">
         <v>40543</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>19413.823768708262</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="6">
         <v>40574</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>20000.567633535797</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="B47" s="6">
         <v>40602</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>20702.73031730716</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="B48" s="6">
         <v>40633</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>20577.472517076319</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6">
       <c r="B49" s="6">
         <v>40663</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>21257.875915309087</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6">
       <c r="B50" s="6">
         <v>40694</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>20204.726495241346</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6">
       <c r="B51" s="6">
         <v>40724</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>20424.779095949001</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6">
       <c r="B52" s="6">
         <v>40755</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>20039.355925148066</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6">
       <c r="B53" s="6">
         <v>40786</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>19823.844392726733</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6">
       <c r="B54" s="6">
         <v>40816</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>19003.803144689795</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6">
       <c r="B55" s="6">
         <v>40847</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>20954.570396019004</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6">
       <c r="B56" s="6">
         <v>40877</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>20904.240222512351</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6">
       <c r="B57" s="6">
         <v>40908</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>22107.62331838566</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6">
       <c r="B58" s="6">
         <v>40939</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>22537.889538513948</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6">
       <c r="B59" s="6">
         <v>40968</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>23479.782785566982</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6">
       <c r="B60" s="6">
         <v>40999</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>22543.187451514648</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6">
       <c r="B61" s="6">
         <v>41029</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>23049.327354260102</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6">
       <c r="B62" s="6">
         <v>41060</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>21323.532194282048</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6">
       <c r="B63" s="6">
         <v>41090</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>22029.289890446737</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6">
       <c r="B64" s="6">
         <v>41121</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>23147.527955951646</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6">
       <c r="B65" s="6">
         <v>41152</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>23518.571077179247</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6">
       <c r="B66" s="6">
         <v>41182</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>23987.057955384011</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6">
       <c r="B67" s="6">
         <v>41213</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>24106.639420256954</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6">
       <c r="B68" s="6">
         <v>41243</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>23914.779285160173</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6">
       <c r="B69" s="6">
         <v>41274</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>23168.530396775848</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6">
       <c r="B70" s="6">
         <v>41305</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>26093.924429055274</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6">
       <c r="B71" s="6">
         <v>41333</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>26325.708122835902</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6">
       <c r="B72" s="6">
         <v>41364</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>27742.521428165983</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6">
       <c r="B73" s="6">
         <v>41394</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>27997.199674556778</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6">
       <c r="B74" s="6">
         <v>41425</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>27424.646648123977</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6">
       <c r="B75" s="6">
         <v>41455</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>28281.584075987212</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6">
       <c r="B76" s="6">
         <v>41486</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>28142.513859718831</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6">
       <c r="B77" s="6">
         <v>41517</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>27439.026697697303</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6">
       <c r="B78" s="6">
         <v>41547</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>28075.72231367429</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6">
       <c r="B79" s="6">
         <v>41578</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>28830.485705095456</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6">
       <c r="B80" s="6">
         <v>41608</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>29081.947361450115</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6">
       <c r="B81" s="6">
         <v>41639</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>29558.759531513122</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6">
       <c r="B82" s="6">
         <v>41670</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>29734.158294072011</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6">
       <c r="B83" s="6">
         <v>41698</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>29679.665474636236</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6">
       <c r="B84" s="6">
         <v>41729</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>30111.066961836103</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6">
       <c r="B85" s="6">
         <v>41759</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>31396.000075684464</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6">
       <c r="B86" s="6">
         <v>41790</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>32460.691377646581</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6">
       <c r="B87" s="6">
         <v>41820</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>34380.617206864576</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6">
       <c r="B88" s="6">
         <v>41851</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>33161.718794346365</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6">
       <c r="B89" s="6">
         <v>41882</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>35878.60210781252</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6">
       <c r="B90" s="6">
         <v>41912</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>35317.780174452695</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6">
       <c r="B91" s="6">
         <v>41943</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>33693.591417380929</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6">
       <c r="B92" s="6">
         <v>41973</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>32824.92289644471</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6">
       <c r="B93" s="6">
         <v>42004</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>30978.600215700735</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6">
       <c r="B94" s="6">
         <v>42035</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>30033.111956254368</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6">
       <c r="B95" s="6">
         <v>42063</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>30657.69805680119</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6">
       <c r="B96" s="6">
         <v>42094</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>29358.763315736691</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8">
       <c r="B97" s="6">
         <v>42124</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>31174.055363190851</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8">
       <c r="B98" s="6">
         <v>42155</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>30059.601521257875</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8">
       <c r="B99" s="6">
         <v>42185</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>27569.77162210743</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8">
       <c r="B100" s="6">
         <v>42216</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>26674.424324989119</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8">
       <c r="B101" s="6">
         <v>42247</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>25350.892130707081</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8">
       <c r="B102" s="6">
         <v>42277</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>21476.225615409359</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8">
       <c r="B103" s="6">
         <v>42308</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>23558.116213505895</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8">
       <c r="B104" s="6">
         <v>42338</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>21655.787023897374</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8">
       <c r="B105" s="6">
         <v>42369</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>20882.670148152356</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8">
       <c r="B106" s="6">
         <v>42400</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>18563.697943274492</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8">
       <c r="B107" s="6">
         <v>42429</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>18475.14711169136</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8">
       <c r="B108" s="6">
         <v>42460</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>20012.866360144559</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8">
       <c r="B109" s="6">
         <v>42490</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>22222.663714972281</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8">
       <c r="B110" s="6">
         <v>42521</v>
       </c>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="H110" s="5"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8">
       <c r="B111" s="6">
         <v>42551</v>
       </c>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8">
       <c r="B112" s="6">
         <v>42582</v>
       </c>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="H112" s="5"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8">
       <c r="B113" s="6">
         <v>42613</v>
       </c>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="H113" s="5"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8">
       <c r="B114" s="6">
         <v>42643</v>
       </c>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="H114" s="5"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8">
       <c r="B115" s="6">
         <v>42674</v>
       </c>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8">
       <c r="B116" s="6">
         <v>42704</v>
       </c>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8">
       <c r="B117" s="6">
         <v>42735</v>
       </c>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8">
       <c r="B118" s="6">
         <v>42766</v>
       </c>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8">
       <c r="B119" s="6">
         <v>42794</v>
       </c>
@@ -7586,7 +7586,7 @@
       </c>
       <c r="H119" s="5"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8">
       <c r="B120" s="6">
         <v>42825</v>
       </c>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8">
       <c r="B121" s="6">
         <v>42855</v>
       </c>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="H121" s="5"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8">
       <c r="B122" s="6">
         <v>42886</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>24205.975289020073</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8">
       <c r="B123" s="6">
         <v>42916</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>24049.308433142225</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8">
       <c r="B124" s="6">
         <v>42947</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>24360.353668513035</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8">
       <c r="B125" s="6">
         <v>42978</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>23155.926120758962</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8">
       <c r="B126" s="6">
         <v>43008</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>23316.188493384474</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8">
       <c r="B127" s="6">
         <f>EOMONTH(B126,1)</f>
         <v>43039</v>
@@ -7741,7 +7741,7 @@
         <v>22351.13276098877</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8">
       <c r="B128" s="6">
         <f t="shared" ref="B128" si="23">EOMONTH(B127,1)</f>
         <v>43069</v>
@@ -7761,7 +7761,7 @@
         <v>22049.037242530805</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6">
       <c r="B129" s="6">
         <f>EOMONTH(B128,1)</f>
         <v>43100</v>
@@ -7781,7 +7781,7 @@
         <v>23094.716111851816</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6">
       <c r="B130" s="6">
         <f t="shared" ref="B130:B144" si="25">EOMONTH(B129,1)</f>
         <v>43131</v>
@@ -7801,7 +7801,7 @@
         <v>24425.215464659468</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6">
       <c r="B131" s="6">
         <f t="shared" si="25"/>
         <v>43159</v>
@@ -7821,7 +7821,7 @@
         <v>22057.476087653715</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6">
       <c r="B132" s="6">
         <f t="shared" si="25"/>
         <v>43190</v>
@@ -7841,7 +7841,7 @@
         <v>20526.714993185094</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6">
       <c r="B133" s="6">
         <f t="shared" si="25"/>
         <v>43220</v>
@@ -7861,7 +7861,7 @@
         <v>22188.2971082361</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6">
       <c r="B134" s="6">
         <f t="shared" si="25"/>
         <v>43251</v>
@@ -7881,7 +7881,7 @@
         <v>23308.601101244829</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6">
       <c r="B135" s="6">
         <f t="shared" si="25"/>
         <v>43281</v>
@@ -7901,7 +7901,7 @@
         <v>22948.720306990137</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6">
       <c r="B136" s="6">
         <f t="shared" si="25"/>
         <v>43312</v>
@@ -7921,7 +7921,7 @@
         <v>24459.027608683296</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6">
       <c r="B137" s="6">
         <f t="shared" si="25"/>
         <v>43343</v>
@@ -7941,7 +7941,7 @@
         <v>24845.606184257304</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6">
       <c r="B138" s="6">
         <f t="shared" si="25"/>
         <v>43373</v>
@@ -7961,7 +7961,7 @@
         <v>24456.492170910944</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6">
       <c r="B139" s="6">
         <f t="shared" si="25"/>
         <v>43404</v>
@@ -7981,7 +7981,7 @@
         <v>22502.142677862943</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:6">
       <c r="B140" s="6">
         <f t="shared" si="25"/>
         <v>43434</v>
@@ -8001,7 +8001,7 @@
         <v>22315.031154498869</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6">
       <c r="B141" s="6">
         <f t="shared" si="25"/>
         <v>43465</v>
@@ -8021,7 +8021,7 @@
         <v>20226.719725419156</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:6">
       <c r="B142" s="6">
         <f t="shared" si="25"/>
         <v>43496</v>
@@ -8041,7 +8041,7 @@
         <v>22782.554527014076</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6">
       <c r="B143" s="6">
         <f t="shared" si="25"/>
         <v>43524</v>
@@ -8061,7 +8061,7 @@
         <v>22844.899806565558</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6">
       <c r="B144" s="6">
         <f t="shared" si="25"/>
         <v>43555</v>
@@ -8081,7 +8081,7 @@
         <v>23628.993398254013</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6">
       <c r="B145" s="6">
         <v>43585</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>23314.390981530945</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6">
       <c r="B146" s="6">
         <v>43616</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>23048.283542498455</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6">
       <c r="B147" s="6">
         <v>43646</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>23657.431927894646</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6">
       <c r="B148" s="6">
         <f>EOMONTH(B147,1)</f>
         <v>43677</v>
@@ -8158,7 +8158,7 @@
         <v>23611.510230331227</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6">
       <c r="B149" s="6">
         <f t="shared" ref="B149:B156" si="36">EOMONTH(B148,1)</f>
         <v>43708</v>
@@ -8178,7 +8178,7 @@
         <v>22310.584677808547</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6">
       <c r="B150" s="6">
         <f t="shared" si="36"/>
         <v>43738</v>
@@ -8198,7 +8198,7 @@
         <v>22468.784642096845</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6">
       <c r="B151" s="6">
         <f t="shared" si="36"/>
         <v>43769</v>
@@ -8218,7 +8218,7 @@
         <v>21071.777350708482</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6">
       <c r="B152" s="6">
         <f t="shared" si="36"/>
         <v>43799</v>
@@ -8238,7 +8238,7 @@
         <v>19859.383987266647</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6">
       <c r="B153" s="6">
         <f t="shared" si="36"/>
         <v>43830</v>
@@ -8258,7 +8258,7 @@
         <v>21552.659074472045</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6">
       <c r="B154" s="6">
         <f t="shared" si="36"/>
         <v>43861</v>
@@ -8278,7 +8278,7 @@
         <v>20343.955340624303</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6">
       <c r="B155" s="6">
         <f t="shared" si="36"/>
         <v>43890</v>
@@ -8298,7 +8298,7 @@
         <v>17485.722281732935</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6">
       <c r="B156" s="6">
         <f t="shared" si="36"/>
         <v>43921</v>
@@ -8327,7 +8327,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70237424-C5AA-4C25-9696-F949655513BB}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C133"/>
   <sheetViews>
@@ -8335,14 +8335,14 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="51" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>43</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="6">
         <f>Data!B25</f>
         <v>39933</v>
@@ -8367,7 +8367,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="6">
         <f>Data!B26</f>
         <v>39964</v>
@@ -8381,7 +8381,7 @@
         <v>10931.486632230231</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="6">
         <f>Data!B27</f>
         <v>39994</v>
@@ -8395,7 +8395,7 @@
         <v>10746.627310741518</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="6">
         <f>Data!B28</f>
         <v>40025</v>
@@ -8409,7 +8409,7 @@
         <v>12084.350343418286</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="6">
         <f>Data!B29</f>
         <v>40056</v>
@@ -8423,7 +8423,7 @@
         <v>11692.304781366482</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="6">
         <f>Data!B30</f>
         <v>40086</v>
@@ -8437,7 +8437,7 @@
         <v>12252.93750354771</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="6">
         <f>Data!B31</f>
         <v>40117</v>
@@ -8451,7 +8451,7 @@
         <v>12603.545817486896</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="6">
         <f>Data!B32</f>
         <v>40147</v>
@@ -8465,7 +8465,7 @@
         <v>13404.855158842784</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="6">
         <f>Data!B33</f>
         <v>40178</v>
@@ -8479,7 +8479,7 @@
         <v>14290.363474674083</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="6">
         <f>Data!B34</f>
         <v>40209</v>
@@ -8493,7 +8493,7 @@
         <v>14380.617206864581</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="6">
         <f>Data!B35</f>
         <v>40237</v>
@@ -8507,7 +8507,7 @@
         <v>15036.423151879813</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="6">
         <f>Data!B36</f>
         <v>40268</v>
@@ -8521,7 +8521,7 @@
         <v>15469.338328508449</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="6">
         <f>Data!B37</f>
         <v>40298</v>
@@ -8535,7 +8535,7 @@
         <v>15992.507237327582</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="6">
         <f>Data!B38</f>
         <v>40329</v>
@@ -8549,7 +8549,7 @@
         <v>15127.622939963294</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="6">
         <f>Data!B39</f>
         <v>40359</v>
@@ -8563,7 +8563,7 @@
         <v>15973.964541825133</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="6">
         <f>Data!B40</f>
         <v>40390</v>
@@ -8577,7 +8577,7 @@
         <v>17177.158426519843</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="6">
         <f>Data!B41</f>
         <v>40421</v>
@@ -8591,7 +8591,7 @@
         <v>16739.134548069102</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="6">
         <f>Data!B42</f>
         <v>40451</v>
@@ -8605,7 +8605,7 @@
         <v>17765.983614311939</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="6">
         <f>Data!B43</f>
         <v>40482</v>
@@ -8619,7 +8619,7 @@
         <v>18724.527445081458</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="6">
         <f>Data!B44</f>
         <v>40512</v>
@@ -8633,7 +8633,7 @@
         <v>19082.514994985908</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="6">
         <f>Data!B45</f>
         <v>40543</v>
@@ -8647,7 +8647,7 @@
         <v>19413.823768708262</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="6">
         <f>Data!B46</f>
         <v>40574</v>
@@ -8661,7 +8661,7 @@
         <v>20000.567633535797</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="6">
         <f>Data!B47</f>
         <v>40602</v>
@@ -8675,7 +8675,7 @@
         <v>20702.73031730716</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="6">
         <f>Data!B48</f>
         <v>40633</v>
@@ -8689,7 +8689,7 @@
         <v>20577.472517076319</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="6">
         <f>Data!B49</f>
         <v>40663</v>
@@ -8703,7 +8703,7 @@
         <v>21257.875915309087</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="6">
         <f>Data!B50</f>
         <v>40694</v>
@@ -8717,7 +8717,7 @@
         <v>20204.726495241346</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="6">
         <f>Data!B51</f>
         <v>40724</v>
@@ -8731,7 +8731,7 @@
         <v>20424.779095949001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="6">
         <f>Data!B52</f>
         <v>40755</v>
@@ -8745,7 +8745,7 @@
         <v>20039.355925148066</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="6">
         <f>Data!B53</f>
         <v>40786</v>
@@ -8759,7 +8759,7 @@
         <v>19823.844392726733</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="6">
         <f>Data!B54</f>
         <v>40816</v>
@@ -8773,7 +8773,7 @@
         <v>19003.803144689795</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="6">
         <f>Data!B55</f>
         <v>40847</v>
@@ -8787,7 +8787,7 @@
         <v>20954.570396019004</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="6">
         <f>Data!B56</f>
         <v>40877</v>
@@ -8801,7 +8801,7 @@
         <v>20904.240222512351</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="6">
         <f>Data!B57</f>
         <v>40908</v>
@@ -8815,7 +8815,7 @@
         <v>22107.62331838566</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="6">
         <f>Data!B58</f>
         <v>40939</v>
@@ -8829,7 +8829,7 @@
         <v>22537.889538513948</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="6">
         <f>Data!B59</f>
         <v>40968</v>
@@ -8843,7 +8843,7 @@
         <v>23479.782785566982</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="6">
         <f>Data!B60</f>
         <v>40999</v>
@@ -8857,7 +8857,7 @@
         <v>22543.187451514648</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="6">
         <f>Data!B61</f>
         <v>41029</v>
@@ -8871,7 +8871,7 @@
         <v>23049.327354260102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="6">
         <f>Data!B62</f>
         <v>41060</v>
@@ -8885,7 +8885,7 @@
         <v>21323.532194282048</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="6">
         <f>Data!B63</f>
         <v>41090</v>
@@ -8899,7 +8899,7 @@
         <v>22029.289890446737</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="6">
         <f>Data!B64</f>
         <v>41121</v>
@@ -8913,7 +8913,7 @@
         <v>23147.527955951646</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="6">
         <f>Data!B65</f>
         <v>41152</v>
@@ -8927,7 +8927,7 @@
         <v>23518.571077179247</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="6">
         <f>Data!B66</f>
         <v>41182</v>
@@ -8941,7 +8941,7 @@
         <v>23987.057955384011</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="6">
         <f>Data!B67</f>
         <v>41213</v>
@@ -8955,7 +8955,7 @@
         <v>24106.639420256954</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="6">
         <f>Data!B68</f>
         <v>41243</v>
@@ -8969,7 +8969,7 @@
         <v>23914.779285160173</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="6">
         <f>Data!B69</f>
         <v>41274</v>
@@ -8983,7 +8983,7 @@
         <v>23168.530396775848</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="6">
         <f>Data!B70</f>
         <v>41305</v>
@@ -8997,7 +8997,7 @@
         <v>26093.924429055274</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="6">
         <f>Data!B71</f>
         <v>41333</v>
@@ -9011,7 +9011,7 @@
         <v>26325.708122835902</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="6">
         <f>Data!B72</f>
         <v>41364</v>
@@ -9025,7 +9025,7 @@
         <v>27742.521428165983</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="6">
         <f>Data!B73</f>
         <v>41394</v>
@@ -9039,7 +9039,7 @@
         <v>27997.199674556778</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="6">
         <f>Data!B74</f>
         <v>41425</v>
@@ -9053,7 +9053,7 @@
         <v>27424.646648123977</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="6">
         <f>Data!B75</f>
         <v>41455</v>
@@ -9067,7 +9067,7 @@
         <v>28281.584075987212</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="6">
         <f>Data!B76</f>
         <v>41486</v>
@@ -9081,7 +9081,7 @@
         <v>28142.513859718831</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="6">
         <f>Data!B77</f>
         <v>41517</v>
@@ -9095,7 +9095,7 @@
         <v>27439.026697697303</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="6">
         <f>Data!B78</f>
         <v>41547</v>
@@ -9109,7 +9109,7 @@
         <v>28075.72231367429</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="6">
         <f>Data!B79</f>
         <v>41578</v>
@@ -9123,7 +9123,7 @@
         <v>28830.485705095456</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="6">
         <f>Data!B80</f>
         <v>41608</v>
@@ -9137,7 +9137,7 @@
         <v>29081.947361450115</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="6">
         <f>Data!B81</f>
         <v>41639</v>
@@ -9151,7 +9151,7 @@
         <v>29558.759531513122</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="6">
         <f>Data!B82</f>
         <v>41670</v>
@@ -9165,7 +9165,7 @@
         <v>29734.158294072011</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="6">
         <f>Data!B83</f>
         <v>41698</v>
@@ -9179,7 +9179,7 @@
         <v>29679.665474636236</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="6">
         <f>Data!B84</f>
         <v>41729</v>
@@ -9193,7 +9193,7 @@
         <v>30111.066961836103</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="6">
         <f>Data!B85</f>
         <v>41759</v>
@@ -9207,7 +9207,7 @@
         <v>31396.000075684464</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="6">
         <f>Data!B86</f>
         <v>41790</v>
@@ -9221,7 +9221,7 @@
         <v>32460.691377646581</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="6">
         <f>Data!B87</f>
         <v>41820</v>
@@ -9235,7 +9235,7 @@
         <v>34380.617206864576</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="6">
         <f>Data!B88</f>
         <v>41851</v>
@@ -9249,7 +9249,7 @@
         <v>33161.718794346365</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="6">
         <f>Data!B89</f>
         <v>41882</v>
@@ -9263,7 +9263,7 @@
         <v>35878.60210781252</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="6">
         <f>Data!B90</f>
         <v>41912</v>
@@ -9277,7 +9277,7 @@
         <v>35317.780174452695</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="6">
         <f>Data!B91</f>
         <v>41943</v>
@@ -9291,7 +9291,7 @@
         <v>33693.591417380929</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="6">
         <f>Data!B92</f>
         <v>41973</v>
@@ -9305,7 +9305,7 @@
         <v>32824.92289644471</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="6">
         <f>Data!B93</f>
         <v>42004</v>
@@ -9319,7 +9319,7 @@
         <v>30978.600215700735</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="6">
         <f>Data!B94</f>
         <v>42035</v>
@@ -9333,7 +9333,7 @@
         <v>30033.111956254368</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="6">
         <f>Data!B95</f>
         <v>42063</v>
@@ -9347,7 +9347,7 @@
         <v>30657.69805680119</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="6">
         <f>Data!B96</f>
         <v>42094</v>
@@ -9361,7 +9361,7 @@
         <v>29358.763315736691</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="6">
         <f>Data!B97</f>
         <v>42124</v>
@@ -9375,7 +9375,7 @@
         <v>31174.055363190851</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="6">
         <f>Data!B98</f>
         <v>42155</v>
@@ -9389,7 +9389,7 @@
         <v>30059.601521257875</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="6">
         <f>Data!B99</f>
         <v>42185</v>
@@ -9403,7 +9403,7 @@
         <v>27569.77162210743</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="6">
         <f>Data!B100</f>
         <v>42216</v>
@@ -9417,7 +9417,7 @@
         <v>26674.424324989119</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="6">
         <f>Data!B101</f>
         <v>42247</v>
@@ -9431,7 +9431,7 @@
         <v>25350.892130707081</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="6">
         <f>Data!B102</f>
         <v>42277</v>
@@ -9445,7 +9445,7 @@
         <v>21476.225615409359</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="6">
         <f>Data!B103</f>
         <v>42308</v>
@@ -9459,7 +9459,7 @@
         <v>23558.116213505895</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="6">
         <f>Data!B104</f>
         <v>42338</v>
@@ -9473,7 +9473,7 @@
         <v>21655.787023897374</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="6">
         <f>Data!B105</f>
         <v>42369</v>
@@ -9487,7 +9487,7 @@
         <v>20882.670148152356</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="6">
         <f>Data!B106</f>
         <v>42400</v>
@@ -9501,7 +9501,7 @@
         <v>18563.697943274492</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="6">
         <f>Data!B107</f>
         <v>42429</v>
@@ -9515,7 +9515,7 @@
         <v>18475.14711169136</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="6">
         <f>Data!B108</f>
         <v>42460</v>
@@ -9529,7 +9529,7 @@
         <v>20012.866360144559</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="6">
         <f>Data!B109</f>
         <v>42490</v>
@@ -9543,7 +9543,7 @@
         <v>22222.663714972281</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="6">
         <f>Data!B110</f>
         <v>42521</v>
@@ -9557,7 +9557,7 @@
         <v>22785.188548939474</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="6">
         <f>Data!B111</f>
         <v>42551</v>
@@ -9571,7 +9571,7 @@
         <v>23954.513632665421</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="6">
         <f>Data!B112</f>
         <v>42582</v>
@@ -9585,7 +9585,7 @@
         <v>24087.907513575905</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="6">
         <f>Data!B113</f>
         <v>42613</v>
@@ -9599,7 +9599,7 @@
         <v>23771.168000605478</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="6">
         <f>Data!B114</f>
         <v>42643</v>
@@ -9613,7 +9613,7 @@
         <v>24211.840835556566</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="6">
         <f>Data!B115</f>
         <v>42674</v>
@@ -9627,7 +9627,7 @@
         <v>23134.28317344989</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="6">
         <f>Data!B116</f>
         <v>42704</v>
@@ -9641,7 +9641,7 @@
         <v>23666.345007663054</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="6">
         <f>Data!B117</f>
         <v>42735</v>
@@ -9655,7 +9655,7 @@
         <v>24705.492800514658</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="6">
         <f>Data!B118</f>
         <v>42766</v>
@@ -9669,7 +9669,7 @@
         <v>25914.173809388656</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="6">
         <f>Data!B119</f>
         <v>42794</v>
@@ -9683,7 +9683,7 @@
         <v>26018.239957616694</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="6">
         <f>Data!B120</f>
         <v>42825</v>
@@ -9697,7 +9697,7 @@
         <v>25680.876426179257</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="6">
         <f>Data!B121</f>
         <v>42855</v>
@@ -9711,7 +9711,7 @@
         <v>25351.83818660006</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="6">
         <f>Data!B122</f>
         <v>42886</v>
@@ -9725,7 +9725,7 @@
         <v>24205.975289020073</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="6">
         <f>Data!B123</f>
         <v>42916</v>
@@ -9739,7 +9739,7 @@
         <v>24049.308433142225</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="6">
         <f>Data!B124</f>
         <v>42947</v>
@@ -9753,7 +9753,7 @@
         <v>24360.353668513035</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="6">
         <f>Data!B125</f>
         <v>42978</v>
@@ -9767,7 +9767,7 @@
         <v>23155.926120758962</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="6">
         <f>Data!B126</f>
         <v>43008</v>
@@ -9781,7 +9781,7 @@
         <v>23316.188493384474</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="6">
         <f>Data!B127</f>
         <v>43039</v>
@@ -9795,7 +9795,7 @@
         <v>22351.13276098877</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="6">
         <f>Data!B128</f>
         <v>43069</v>
@@ -9809,7 +9809,7 @@
         <v>22049.037242530805</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="6">
         <f>Data!B129</f>
         <v>43100</v>
@@ -9823,7 +9823,7 @@
         <v>23094.716111851816</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="6">
         <f>Data!B130</f>
         <v>43131</v>
@@ -9837,7 +9837,7 @@
         <v>24425.215464659468</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="6">
         <f>Data!B131</f>
         <v>43159</v>
@@ -9851,7 +9851,7 @@
         <v>22057.476087653715</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="6">
         <f>Data!B132</f>
         <v>43190</v>
@@ -9865,7 +9865,7 @@
         <v>20526.714993185094</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="6">
         <f>Data!B133</f>
         <v>43220</v>
@@ -9879,7 +9879,7 @@
         <v>22188.2971082361</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="6">
         <f>Data!B134</f>
         <v>43251</v>
@@ -9893,7 +9893,7 @@
         <v>23308.601101244829</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="6">
         <f>Data!B135</f>
         <v>43281</v>
@@ -9907,7 +9907,7 @@
         <v>22948.720306990137</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="6">
         <f>Data!B136</f>
         <v>43312</v>
@@ -9921,7 +9921,7 @@
         <v>24459.027608683296</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="6">
         <f>Data!B137</f>
         <v>43343</v>
@@ -9935,7 +9935,7 @@
         <v>24845.606184257304</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="6">
         <f>Data!B138</f>
         <v>43373</v>
@@ -9949,7 +9949,7 @@
         <v>24456.492170910944</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="6">
         <f>Data!B139</f>
         <v>43404</v>
@@ -9963,7 +9963,7 @@
         <v>22502.142677862943</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="6">
         <f>Data!B140</f>
         <v>43434</v>
@@ -9977,7 +9977,7 @@
         <v>22315.031154498869</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="6">
         <f>Data!B141</f>
         <v>43465</v>
@@ -9991,7 +9991,7 @@
         <v>20226.719725419156</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="6">
         <f>Data!B142</f>
         <v>43496</v>
@@ -10005,7 +10005,7 @@
         <v>22782.554527014076</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="6">
         <f>Data!B143</f>
         <v>43524</v>
@@ -10019,7 +10019,7 @@
         <v>22844.899806565558</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="6">
         <f>Data!B144</f>
         <v>43555</v>
@@ -10033,7 +10033,7 @@
         <v>23628.993398254013</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="6">
         <f>Data!B145</f>
         <v>43585</v>
@@ -10047,7 +10047,7 @@
         <v>23314.390981530945</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="6">
         <f>Data!B146</f>
         <v>43616</v>
@@ -10061,7 +10061,7 @@
         <v>23048.283542498455</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="6">
         <f>Data!B147</f>
         <v>43646</v>
@@ -10075,7 +10075,7 @@
         <v>23657.431927894646</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="6">
         <f>Data!B148</f>
         <v>43677</v>
@@ -10089,7 +10089,7 @@
         <v>23611.510230331227</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="6">
         <f>Data!B149</f>
         <v>43708</v>
@@ -10103,7 +10103,7 @@
         <v>22310.584677808547</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="6">
         <f>Data!B150</f>
         <v>43738</v>
@@ -10117,7 +10117,7 @@
         <v>22468.784642096845</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="6">
         <f>Data!B151</f>
         <v>43769</v>
@@ -10131,7 +10131,7 @@
         <v>21071.777350708482</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="6">
         <f>Data!B152</f>
         <v>43799</v>
@@ -10145,7 +10145,7 @@
         <v>19859.383987266647</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="6">
         <f>Data!B153</f>
         <v>43830</v>
@@ -10159,7 +10159,7 @@
         <v>21552.659074472045</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="6">
         <f>Data!B154</f>
         <v>43861</v>
@@ -10173,7 +10173,7 @@
         <v>20343.955340624303</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="6">
         <f>Data!B155</f>
         <v>43890</v>
@@ -10187,7 +10187,7 @@
         <v>17485.722281732935</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="6">
         <f>Data!B156</f>
         <v>43921</v>
@@ -10210,22 +10210,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0DCEFF-0472-4A5A-8DB6-B59993E59C13}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9.140625" style="51"/>
     <col min="7" max="7" width="15.7109375" style="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!A4</f>
         <v>Share Class/Benchmark</v>
@@ -10258,7 +10258,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!A5</f>
         <v>SL Advisors MLP Strategy</v>
@@ -10291,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="str">
         <f>'INSTITUTIONAL FACT SHEET'!A6</f>
         <v>Alerian MLP TR Index</v>
@@ -10332,19 +10332,21 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13603BB5-3D5D-4ABB-B8C8-AAD0D7B37CEC}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="14" width="9.140625" style="51"/>
     <col min="15" max="15" width="10" style="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -10408,7 +10410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2">
         <f>'INSTITUTIONAL FACT SHEET'!H21</f>
         <v>2020</v>
@@ -10473,7 +10475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3">
         <f>'INSTITUTIONAL FACT SHEET'!H22</f>
         <v>2019</v>
@@ -10538,7 +10540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4">
         <f>'INSTITUTIONAL FACT SHEET'!H23</f>
         <v>2018</v>
@@ -10603,7 +10605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5">
         <f>'INSTITUTIONAL FACT SHEET'!H24</f>
         <v>2017</v>
@@ -10668,7 +10670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6">
         <f>'INSTITUTIONAL FACT SHEET'!H25</f>
         <v>2016</v>
@@ -10733,7 +10735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7">
         <f>'INSTITUTIONAL FACT SHEET'!H26</f>
         <v>2015</v>
@@ -10798,7 +10800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8">
         <f>'INSTITUTIONAL FACT SHEET'!H27</f>
         <v>2014</v>
@@ -10863,7 +10865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9">
         <f>'INSTITUTIONAL FACT SHEET'!H28</f>
         <v>2013</v>
@@ -10928,7 +10930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10">
         <f>'INSTITUTIONAL FACT SHEET'!H29</f>
         <v>2012</v>
@@ -10993,7 +10995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11">
         <f>'INSTITUTIONAL FACT SHEET'!H30</f>
         <v>2011</v>
@@ -11058,7 +11060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12">
         <f>'INSTITUTIONAL FACT SHEET'!H31</f>
         <v>2010</v>
@@ -11123,7 +11125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13">
         <f>'INSTITUTIONAL FACT SHEET'!H32</f>
         <v>2009</v>
